--- a/data/trans_orig/P32-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9245</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4692</v>
+        <v>4615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16158</v>
+        <v>15803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0307421538954756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0156026443291888</v>
+        <v>0.01534712658780675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05373032923588032</v>
+        <v>0.05255006155712629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4548</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11198</v>
+        <v>11199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02491512365786081</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006306609565879327</v>
+        <v>0.006338596745137488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06134413838409201</v>
+        <v>0.06134791684961923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7603</v>
+        <v>8075</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22167</v>
+        <v>21644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02854111074791052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01573200645820104</v>
+        <v>0.01671029231913076</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04586872899474338</v>
+        <v>0.04478655657910201</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>291475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284562</v>
+        <v>284917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296028</v>
+        <v>296105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9692578461045244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9462696707641195</v>
+        <v>0.9474499384428736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9843973556708112</v>
+        <v>0.9846528734121932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -836,19 +836,19 @@
         <v>177995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171345</v>
+        <v>171344</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181392</v>
+        <v>181386</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9750848763421391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9386558616159075</v>
+        <v>0.9386520831503812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9936933904341206</v>
+        <v>0.9936614032548625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>456</v>
@@ -857,19 +857,19 @@
         <v>469470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461096</v>
+        <v>461619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>475660</v>
+        <v>475188</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9714588892520895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9541312710052569</v>
+        <v>0.9552134434208982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9842679935417991</v>
+        <v>0.9832897076808692</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8978</v>
+        <v>9060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25269</v>
+        <v>25211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02489830755296692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01419099955381632</v>
+        <v>0.01432016651469293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03993984821771884</v>
+        <v>0.03984822207572219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5584</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12407</v>
+        <v>13102</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02262915544341574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007849063604723905</v>
+        <v>0.007854656465041217</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05027686133505205</v>
+        <v>0.05309424859607323</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1003,19 +1003,19 @@
         <v>21337</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13576</v>
+        <v>13905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31539</v>
+        <v>31432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02426156737154026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0154370549321531</v>
+        <v>0.01581091339459645</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03586199095206328</v>
+        <v>0.03574065781002796</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>616912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>607395</v>
+        <v>607453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>623686</v>
+        <v>623604</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.975101692447033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.960060151782281</v>
+        <v>0.960151777924278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9858090004461836</v>
+        <v>0.9856798334853072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>234</v>
@@ -1053,19 +1053,19 @@
         <v>241193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>234370</v>
+        <v>233675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>244840</v>
+        <v>244839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9773708445565843</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9497231386649478</v>
+        <v>0.9469057514039267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9921509363952761</v>
+        <v>0.9921453435349589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>845</v>
@@ -1074,19 +1074,19 @@
         <v>858104</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>847902</v>
+        <v>848009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865865</v>
+        <v>865536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9757384326284597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9641380090479365</v>
+        <v>0.964259342189972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9845629450678469</v>
+        <v>0.9841890866054035</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10471</v>
+        <v>11508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29588</v>
+        <v>31682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02883822235660086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0159566918367699</v>
+        <v>0.01753638647756805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04508710594591022</v>
+        <v>0.04827821731729581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5127</v>
+        <v>6166</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003202710632185845</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01613587623060159</v>
+        <v>0.01940400201990524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>19942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12132</v>
+        <v>12791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30244</v>
+        <v>31482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02047496949654195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01245642911088575</v>
+        <v>0.01313233890243074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03105173515387604</v>
+        <v>0.0323232888510621</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>637310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>626647</v>
+        <v>624553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>645764</v>
+        <v>644727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9711617776433992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9549128940540893</v>
+        <v>0.9517217826827036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.98404330816323</v>
+        <v>0.9824636135224319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -1270,7 +1270,7 @@
         <v>316732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312623</v>
+        <v>311584</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>317750</v>
@@ -1279,7 +1279,7 @@
         <v>0.9967972893678142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9838641237693984</v>
+        <v>0.9805959979800927</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>954043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>943741</v>
+        <v>942503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>961853</v>
+        <v>961194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9795250305034581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.968948264846124</v>
+        <v>0.9676767111489378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9875435708891143</v>
+        <v>0.9868676610975693</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>5882</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2274</v>
+        <v>1920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14197</v>
+        <v>13314</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02127511485717969</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008223495325352874</v>
+        <v>0.006944004167913571</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05134563523539534</v>
+        <v>0.04815437601756686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5684</v>
+        <v>5662</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008598501434394699</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04279294768628373</v>
+        <v>0.04263060145886111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1437,19 +1437,19 @@
         <v>7025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2529</v>
+        <v>2729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14685</v>
+        <v>14920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01716148840832884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006179536361580674</v>
+        <v>0.006667148683509472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03587548413689449</v>
+        <v>0.03645094998570053</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>270614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>262299</v>
+        <v>263182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274222</v>
+        <v>274576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9787248851428203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9486543647646046</v>
+        <v>0.9518456239824329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9917765046746464</v>
+        <v>0.9930559958320864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1487,7 +1487,7 @@
         <v>131685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127143</v>
+        <v>127165</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>132827</v>
@@ -1496,7 +1496,7 @@
         <v>0.9914014985656053</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9572070523137163</v>
+        <v>0.9573693985411388</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>402298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394638</v>
+        <v>394403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>406794</v>
+        <v>406594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9828385115916711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9641245158631055</v>
+        <v>0.9635490500142994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9938204636384194</v>
+        <v>0.9933328513164905</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>49804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36308</v>
+        <v>35698</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65485</v>
+        <v>64283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02668869846069289</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01945659624808633</v>
+        <v>0.01912951601802238</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03509176195231208</v>
+        <v>0.03444758101363758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1633,19 +1633,19 @@
         <v>12292</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6176</v>
+        <v>6486</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21759</v>
+        <v>21961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01397005480046828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007018439725147916</v>
+        <v>0.007371106430411154</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02472948480373586</v>
+        <v>0.02495872702753817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1654,19 +1654,19 @@
         <v>62096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47515</v>
+        <v>47594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79689</v>
+        <v>80649</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02261329602110495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01730338316334957</v>
+        <v>0.01733214004297645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02902005101296619</v>
+        <v>0.02936953139503767</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1816310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1800629</v>
+        <v>1801831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1829806</v>
+        <v>1830416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9733113015393071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9649082380476881</v>
+        <v>0.9655524189863632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9805434037519143</v>
+        <v>0.980870483981978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>849</v>
@@ -1704,19 +1704,19 @@
         <v>867605</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>858138</v>
+        <v>857936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>873721</v>
+        <v>873411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9860299451995317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9752705151962638</v>
+        <v>0.9750412729724612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9929815602748521</v>
+        <v>0.9926288935695888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2631</v>
@@ -1725,19 +1725,19 @@
         <v>2683915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2666322</v>
+        <v>2665362</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2698496</v>
+        <v>2698417</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.977386703978895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9709799489870338</v>
+        <v>0.9706304686049623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9826966168366503</v>
+        <v>0.9826678599570234</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>50660</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36526</v>
+        <v>37693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66081</v>
+        <v>65569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0840392246855482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06059124036662834</v>
+        <v>0.06252728351931428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109619876632362</v>
+        <v>0.1087709772039071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2090,19 +2090,19 @@
         <v>7653</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2762</v>
+        <v>2876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15488</v>
+        <v>16903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02706813392861388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009770179801898017</v>
+        <v>0.0101709979456707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05477938702447852</v>
+        <v>0.05978363702882971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -2111,19 +2111,19 @@
         <v>58314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44781</v>
+        <v>43840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75847</v>
+        <v>75127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06584978965567394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0505681099838659</v>
+        <v>0.04950526525147007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08564928464099372</v>
+        <v>0.0848366499952548</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>552159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>536738</v>
+        <v>537250</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>566293</v>
+        <v>565126</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9159607753144519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8903801233676391</v>
+        <v>0.8912290227960924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9394087596333717</v>
+        <v>0.9374727164806856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -2161,19 +2161,19 @@
         <v>275082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267247</v>
+        <v>265832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279973</v>
+        <v>279859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9729318660713862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9452206129755214</v>
+        <v>0.9402163629711703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.990229820198102</v>
+        <v>0.9898290020543293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>772</v>
@@ -2182,19 +2182,19 @@
         <v>827240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809707</v>
+        <v>810427</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840773</v>
+        <v>841714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9341502103443261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9143507153590061</v>
+        <v>0.915163350004745</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9494318900161342</v>
+        <v>0.9504947347485297</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>30674</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20105</v>
+        <v>21043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44448</v>
+        <v>43270</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05216428574030735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03418970104969095</v>
+        <v>0.03578538005947328</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07558832853947557</v>
+        <v>0.0735845761050406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2307,19 +2307,19 @@
         <v>5241</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2062</v>
+        <v>2071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10957</v>
+        <v>11567</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01642440345969092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006460856096471975</v>
+        <v>0.006489185332426307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03433481209834587</v>
+        <v>0.03624684367287914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -2328,19 +2328,19 @@
         <v>35916</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25851</v>
+        <v>25362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51813</v>
+        <v>50142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0395916495147136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02849645730566234</v>
+        <v>0.02795796371021641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05711584262004339</v>
+        <v>0.0552737544832646</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>557357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543583</v>
+        <v>544761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>567926</v>
+        <v>566988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9478357142596927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9244116714605246</v>
+        <v>0.9264154238949595</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9658102989503092</v>
+        <v>0.9642146199405267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2378,19 +2378,19 @@
         <v>313877</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308161</v>
+        <v>307551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317056</v>
+        <v>317047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9835755965403091</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9656651879016543</v>
+        <v>0.9637531563271209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.993539143903528</v>
+        <v>0.9935108146675737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>819</v>
@@ -2399,19 +2399,19 @@
         <v>871233</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>855336</v>
+        <v>857007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>881298</v>
+        <v>881787</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9604083504852864</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9428841573799562</v>
+        <v>0.9447262455167353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9715035426943376</v>
+        <v>0.9720420362897836</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>28807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19468</v>
+        <v>19373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42475</v>
+        <v>40637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0525269285634402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03549698744596697</v>
+        <v>0.03532519062931132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07744820756340177</v>
+        <v>0.07409592144684837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2524,19 +2524,19 @@
         <v>5836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11818</v>
+        <v>12711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02098978476726395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00721210561023101</v>
+        <v>0.00717121712256938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04250421538925001</v>
+        <v>0.04571581265657245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -2545,19 +2545,19 @@
         <v>34643</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24193</v>
+        <v>23263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50059</v>
+        <v>47201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04191733601540396</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0292726983141335</v>
+        <v>0.02814773700762089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06057000655108882</v>
+        <v>0.05711134411474745</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>519624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505956</v>
+        <v>507794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>528963</v>
+        <v>529058</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9474730714365598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9225517924365982</v>
+        <v>0.9259040785531516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.964503012554033</v>
+        <v>0.9646748093706887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -2595,19 +2595,19 @@
         <v>272201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266219</v>
+        <v>265326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276032</v>
+        <v>276043</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.979010215232736</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9574957846107497</v>
+        <v>0.9542841873434276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992787894389769</v>
+        <v>0.9928287828774306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>745</v>
@@ -2616,19 +2616,19 @@
         <v>791825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>776409</v>
+        <v>779267</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>802275</v>
+        <v>803205</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9580826639845961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9394299934489112</v>
+        <v>0.9428886558852526</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9707273016858665</v>
+        <v>0.9718522629923791</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>27500</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18211</v>
+        <v>18363</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39033</v>
+        <v>39539</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09350154792832611</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06191942529409313</v>
+        <v>0.06243347741166253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1327123670247819</v>
+        <v>0.13443318826044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2741,19 +2741,19 @@
         <v>3976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>993</v>
+        <v>1104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11573</v>
+        <v>11474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02373613119343527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005931216420378378</v>
+        <v>0.006588580748968484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0690936489578854</v>
+        <v>0.06850140547631191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -2762,19 +2762,19 @@
         <v>31476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21707</v>
+        <v>20205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45675</v>
+        <v>44323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06818745056958721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04702522385894356</v>
+        <v>0.04377159899232985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09894786567665406</v>
+        <v>0.09601930827008331</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>266616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>255083</v>
+        <v>254577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275905</v>
+        <v>275753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9064984520716739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8672876329752183</v>
+        <v>0.86556681173956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.938080574705907</v>
+        <v>0.9375665225883375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -2812,19 +2812,19 @@
         <v>163517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155920</v>
+        <v>156019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166500</v>
+        <v>166389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9762638688065647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9309063510421144</v>
+        <v>0.931498594523688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9940687835796217</v>
+        <v>0.993411419251031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>392</v>
@@ -2833,19 +2833,19 @@
         <v>430132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>415933</v>
+        <v>417285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>439901</v>
+        <v>441403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9318125494304128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9010521343233462</v>
+        <v>0.9039806917299169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9529747761410564</v>
+        <v>0.9562284010076703</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>137642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116235</v>
+        <v>114135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161850</v>
+        <v>162013</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06769083506243039</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05716275682074296</v>
+        <v>0.05613033484418453</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07959597275260696</v>
+        <v>0.07967608546303459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -2958,19 +2958,19 @@
         <v>22706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14055</v>
+        <v>13934</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35346</v>
+        <v>35542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02167879545902512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01341885172068097</v>
+        <v>0.01330326045817481</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03374741895319176</v>
+        <v>0.03393436090428113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -2979,19 +2979,19 @@
         <v>160348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134984</v>
+        <v>138260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185220</v>
+        <v>189513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05204796473727907</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04381500955666757</v>
+        <v>0.04487842177148749</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06012127402574647</v>
+        <v>0.06151471179807239</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1895754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1871546</v>
+        <v>1871383</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1917161</v>
+        <v>1919261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9323091649375697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9204040272473931</v>
+        <v>0.9203239145369652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9428372431792574</v>
+        <v>0.9438696651558154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>942</v>
@@ -3029,19 +3029,19 @@
         <v>1024677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1012037</v>
+        <v>1011841</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1033328</v>
+        <v>1033449</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9783212045409749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9662525810468083</v>
+        <v>0.9660656390957189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.986581148279319</v>
+        <v>0.9866967395418252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2728</v>
@@ -3050,19 +3050,19 @@
         <v>2920431</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2895559</v>
+        <v>2891266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2945795</v>
+        <v>2942519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.947952035262721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9398787259742533</v>
+        <v>0.9384852882019276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9561849904433324</v>
+        <v>0.9551215782285123</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>36717</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25230</v>
+        <v>25111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50174</v>
+        <v>51404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06193939518873878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04256108454019564</v>
+        <v>0.04236024361224982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08464030129040331</v>
+        <v>0.08671604089630959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>8168</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3906</v>
+        <v>3839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15721</v>
+        <v>15515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02449597625798906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01171526766431252</v>
+        <v>0.01151386381401748</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04714997115579894</v>
+        <v>0.04653335716838411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -3436,19 +3436,19 @@
         <v>44885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33302</v>
+        <v>32756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60406</v>
+        <v>60027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04846018772358744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03595471770543685</v>
+        <v>0.03536545033549456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06521793552290772</v>
+        <v>0.06480931109327852</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>556071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>542614</v>
+        <v>541384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>567558</v>
+        <v>567677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9380606048112612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9153596987095967</v>
+        <v>0.9132839591036904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9574389154598044</v>
+        <v>0.9576397563877502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>313</v>
@@ -3486,19 +3486,19 @@
         <v>325259</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317706</v>
+        <v>317912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329521</v>
+        <v>329588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.975504023742011</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.952850028844201</v>
+        <v>0.9534666428316159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9882847323356876</v>
+        <v>0.9884861361859825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>837</v>
@@ -3507,19 +3507,19 @@
         <v>881330</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>865809</v>
+        <v>866188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>892913</v>
+        <v>893459</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9515398122764126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9347820644770923</v>
+        <v>0.9351906889067214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9640452822945631</v>
+        <v>0.9646345496645055</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>23975</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15593</v>
+        <v>15447</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35208</v>
+        <v>34260</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04409004047575693</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.028676008556543</v>
+        <v>0.02840764145219022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06474908751320753</v>
+        <v>0.06300549690258719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3632,19 +3632,19 @@
         <v>9183</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4173</v>
+        <v>4155</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16936</v>
+        <v>16651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02815898134201656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01279532069729985</v>
+        <v>0.0127411066556538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05193039109577717</v>
+        <v>0.05105746667385806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -3653,19 +3653,19 @@
         <v>33158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22249</v>
+        <v>23914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44630</v>
+        <v>45781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03811738446478516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0255770470459428</v>
+        <v>0.02749030825720636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05130493579223617</v>
+        <v>0.05262805473390068</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>519791</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508558</v>
+        <v>509506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>528173</v>
+        <v>528319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9559099595242431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9352509124867925</v>
+        <v>0.9369945030974131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.971323991443457</v>
+        <v>0.9715923585478099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>308</v>
@@ -3703,19 +3703,19 @@
         <v>316946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>309193</v>
+        <v>309478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321956</v>
+        <v>321974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9718410186579834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9480696089042223</v>
+        <v>0.9489425333261419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9872046793027002</v>
+        <v>0.987258893344346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>810</v>
@@ -3724,19 +3724,19 @@
         <v>836737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>825265</v>
+        <v>824114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>847646</v>
+        <v>845981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9618826155352148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9486950642077638</v>
+        <v>0.9473719452660992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.974422952954057</v>
+        <v>0.9725096917427934</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>25693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16326</v>
+        <v>16797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37669</v>
+        <v>38514</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04850568454314036</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03082055719832676</v>
+        <v>0.03171086473087154</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07111326350025363</v>
+        <v>0.072709285565058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3849,19 +3849,19 @@
         <v>10729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5864</v>
+        <v>5053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18995</v>
+        <v>18718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03678842533309173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02010634907858186</v>
+        <v>0.01732429330257697</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06512947118377221</v>
+        <v>0.06418180590245708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3870,19 +3870,19 @@
         <v>36423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25569</v>
+        <v>25075</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53453</v>
+        <v>50880</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04434508522478125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03113048575785433</v>
+        <v>0.03052980416667975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0650799605353146</v>
+        <v>0.06194720936540388</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>504006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>492030</v>
+        <v>491185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513373</v>
+        <v>512902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9514943154568596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9288867364997464</v>
+        <v>0.927290714434942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691794428016733</v>
+        <v>0.9682891352691285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -3920,19 +3920,19 @@
         <v>280916</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272650</v>
+        <v>272927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>285781</v>
+        <v>286592</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9632115746669083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9348705288162277</v>
+        <v>0.9358181940975431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9798936509214181</v>
+        <v>0.9826757066974232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>742</v>
@@ -3941,19 +3941,19 @@
         <v>784921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>767891</v>
+        <v>770464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>795775</v>
+        <v>796269</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9556549147752188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9349200394646854</v>
+        <v>0.9380527906345961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9688695142421456</v>
+        <v>0.9694701958333202</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>18785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11729</v>
+        <v>11250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29291</v>
+        <v>29653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05891452942032301</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03678395727208267</v>
+        <v>0.03528307246934149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09186088055988019</v>
+        <v>0.09299690567673967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4066,19 +4066,19 @@
         <v>9220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4616</v>
+        <v>3836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16673</v>
+        <v>17377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04923529288595532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02465114438195823</v>
+        <v>0.02048680293734856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08903496576677038</v>
+        <v>0.09279690904712924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -4087,19 +4087,19 @@
         <v>28005</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19120</v>
+        <v>19728</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40323</v>
+        <v>42039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05533328036825414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03777753353343575</v>
+        <v>0.03897800971350669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07967040309853546</v>
+        <v>0.08306176232837094</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>300075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>289569</v>
+        <v>289207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307131</v>
+        <v>307610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.941085470579677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9081391194401197</v>
+        <v>0.9070030943232603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9632160427279173</v>
+        <v>0.9647169275306585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -4137,19 +4137,19 @@
         <v>178041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170588</v>
+        <v>169884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182645</v>
+        <v>183425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9507647071140447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9109650342332294</v>
+        <v>0.9072030909528699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9753488556180417</v>
+        <v>0.9795131970626514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -4158,19 +4158,19 @@
         <v>478116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>465798</v>
+        <v>464082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>487001</v>
+        <v>486393</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9446667196317459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203295969014643</v>
+        <v>0.9169382376716291</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9622224664665643</v>
+        <v>0.9610219902864934</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>105170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84647</v>
+        <v>85562</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126355</v>
+        <v>128464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05297960249988214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04264069196323501</v>
+        <v>0.04310162482343033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06365126223151783</v>
+        <v>0.0647136378234469</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -4283,19 +4283,19 @@
         <v>37300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26341</v>
+        <v>27717</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50709</v>
+        <v>52245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03276358563394367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02313742872197095</v>
+        <v>0.02434579971387166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0445420283073122</v>
+        <v>0.04589081291709637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -4304,19 +4304,19 @@
         <v>142471</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119352</v>
+        <v>119135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167003</v>
+        <v>169783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0456113853148173</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03820994457310388</v>
+        <v>0.03814046011068373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05346541191984271</v>
+        <v>0.05435524741473242</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1879943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1858758</v>
+        <v>1856649</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1900466</v>
+        <v>1899551</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9470203975001179</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9363487377684829</v>
+        <v>0.935286362176553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9573593080367653</v>
+        <v>0.9568983751765696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1052</v>
@@ -4354,19 +4354,19 @@
         <v>1101163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1087754</v>
+        <v>1086218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1112122</v>
+        <v>1110746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9672364143660563</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9554579716926878</v>
+        <v>0.954109187082904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.976862571278029</v>
+        <v>0.9756542002861284</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2836</v>
@@ -4375,19 +4375,19 @@
         <v>2981105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2956573</v>
+        <v>2953793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3004224</v>
+        <v>3004441</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9543886146851827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9465345880801569</v>
+        <v>0.9456447525852676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9617900554268959</v>
+        <v>0.9618595398893163</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>24515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15141</v>
+        <v>15669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36679</v>
+        <v>39233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1141550662303286</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07050446760628484</v>
+        <v>0.07296254382274751</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1707977337778898</v>
+        <v>0.1826873193377894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4740,19 +4740,19 @@
         <v>5083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2020</v>
+        <v>2175</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11423</v>
+        <v>11259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04344694844143551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01726570627163787</v>
+        <v>0.01858933090644609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0976304558109098</v>
+        <v>0.09623185110776328</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -4761,19 +4761,19 @@
         <v>29599</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20176</v>
+        <v>19080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44410</v>
+        <v>44065</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08921806260597163</v>
+        <v>0.08921806260597162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06081522200299756</v>
+        <v>0.05751136405040044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1338636983628602</v>
+        <v>0.1328229222835212</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>190239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178075</v>
+        <v>175521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199613</v>
+        <v>199085</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8858449337696717</v>
+        <v>0.8858449337696713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8292022662221107</v>
+        <v>0.8173126806622107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9294955323937152</v>
+        <v>0.9270374561772525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -4811,19 +4811,19 @@
         <v>111919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105579</v>
+        <v>105743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114982</v>
+        <v>114827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9565530515585645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9023695441890898</v>
+        <v>0.9037681488922367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827342937283619</v>
+        <v>0.981410669093554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>324</v>
@@ -4832,19 +4832,19 @@
         <v>302156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>287345</v>
+        <v>287690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>311579</v>
+        <v>312675</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9107819373940284</v>
+        <v>0.9107819373940282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8661363016371398</v>
+        <v>0.8671770777164789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9391847779970025</v>
+        <v>0.9424886359495995</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>22295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14130</v>
+        <v>14310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33052</v>
+        <v>32750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04867231733689589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03084661641218743</v>
+        <v>0.03124117056862238</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07215481269749448</v>
+        <v>0.07149551361310839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4957,19 +4957,19 @@
         <v>3207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1249</v>
+        <v>1029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7201</v>
+        <v>7350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01316331017624515</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005127672685261748</v>
+        <v>0.00422475878179557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02955582153188368</v>
+        <v>0.03016746386017871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4978,19 +4978,19 @@
         <v>25502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16963</v>
+        <v>16512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37975</v>
+        <v>37326</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03634329833227575</v>
+        <v>0.03634329833227574</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02417418636995997</v>
+        <v>0.02353156701319615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0541181974469342</v>
+        <v>0.05319438192175521</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>435769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>425012</v>
+        <v>425314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>443934</v>
+        <v>443754</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9513276826631041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9278451873025053</v>
+        <v>0.9285044863868916</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9691533835878124</v>
+        <v>0.9687588294313776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -5028,19 +5028,19 @@
         <v>240429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236435</v>
+        <v>236286</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>242387</v>
+        <v>242607</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9868366898237548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9704441784681164</v>
+        <v>0.9698325361398213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9948723273147383</v>
+        <v>0.9957752412182045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>717</v>
@@ -5049,19 +5049,19 @@
         <v>676198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>663725</v>
+        <v>664374</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>684737</v>
+        <v>685188</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9636567016677244</v>
+        <v>0.9636567016677243</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9458818025530663</v>
+        <v>0.946805618078245</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9758258136300403</v>
+        <v>0.976468432986804</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>21764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13731</v>
+        <v>13376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32185</v>
+        <v>32163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04303101445359509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02714840409840203</v>
+        <v>0.02644590665521416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06363420579979076</v>
+        <v>0.06359052131792119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5174,19 +5174,19 @@
         <v>10912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4948</v>
+        <v>4919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21451</v>
+        <v>21310</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04084572102010632</v>
+        <v>0.04084572102010631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01852260474128224</v>
+        <v>0.01841187771373679</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08029959902797858</v>
+        <v>0.07977164147246275</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5195,19 +5195,19 @@
         <v>32676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22050</v>
+        <v>22487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46322</v>
+        <v>48816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04227572057578671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02852858842363079</v>
+        <v>0.02909331821795976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0599313817289069</v>
+        <v>0.06315788963717756</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>484014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473593</v>
+        <v>473615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492047</v>
+        <v>492402</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.956968985546405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9363657942002093</v>
+        <v>0.9364094786820789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9728515959015981</v>
+        <v>0.9735540933447863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -5245,19 +5245,19 @@
         <v>256229</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245690</v>
+        <v>245831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262193</v>
+        <v>262222</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9591542789798937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9197004009720211</v>
+        <v>0.9202283585275371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9814773952587177</v>
+        <v>0.9815881222862634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>834</v>
@@ -5266,19 +5266,19 @@
         <v>740242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>726596</v>
+        <v>724102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>750868</v>
+        <v>750431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9577242794242132</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.940068618271093</v>
+        <v>0.9368421103628225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9714714115763691</v>
+        <v>0.9709066817820404</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>38958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25803</v>
+        <v>26700</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53615</v>
+        <v>57780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08041608930047418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05326195906531394</v>
+        <v>0.05511441320119042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1106709094338467</v>
+        <v>0.1192675070898021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5391,19 +5391,19 @@
         <v>12045</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6105</v>
+        <v>6524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22227</v>
+        <v>21410</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04455660562995779</v>
+        <v>0.04455660562995781</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02258435800831729</v>
+        <v>0.02413236275580041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08221960066249076</v>
+        <v>0.07919890184311271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -5412,19 +5412,19 @@
         <v>51003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38310</v>
+        <v>37404</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70282</v>
+        <v>68806</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06757268689963017</v>
+        <v>0.06757268689963018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05075585505371051</v>
+        <v>0.04955580430614874</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09311514330970112</v>
+        <v>0.09115873140034181</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>445497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430840</v>
+        <v>426675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>458652</v>
+        <v>457755</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9195839106995259</v>
+        <v>0.9195839106995258</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8893290905661534</v>
+        <v>0.8807324929101978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9467380409346863</v>
+        <v>0.9448855867988095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>348</v>
@@ -5462,19 +5462,19 @@
         <v>258290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>248108</v>
+        <v>248925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264230</v>
+        <v>263811</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9554433943700422</v>
+        <v>0.9554433943700424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9177803993375092</v>
+        <v>0.9208010981568876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9774156419916827</v>
+        <v>0.9758676372441997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>765</v>
@@ -5483,19 +5483,19 @@
         <v>703787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>684508</v>
+        <v>685984</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>716480</v>
+        <v>717386</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9324273131003699</v>
+        <v>0.93242731310037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9068848566902989</v>
+        <v>0.9088412685996583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9492441449462893</v>
+        <v>0.9504441956938513</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>107532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87162</v>
+        <v>88117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132143</v>
+        <v>132736</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06465970313111079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05241111969429993</v>
+        <v>0.0529853555663157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07945804784735726</v>
+        <v>0.07981460661137929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -5608,19 +5608,19 @@
         <v>31247</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21440</v>
+        <v>20930</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45612</v>
+        <v>45262</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03479202528675744</v>
+        <v>0.03479202528675743</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02387212643218808</v>
+        <v>0.02330394359418703</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05078686750782999</v>
+        <v>0.05039629842203025</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -5629,19 +5629,19 @@
         <v>138780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114810</v>
+        <v>116005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167396</v>
+        <v>165928</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05418611960921569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04482721801884922</v>
+        <v>0.04529382254384776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06535934011669375</v>
+        <v>0.06478609312450015</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1555518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1530907</v>
+        <v>1530314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1575888</v>
+        <v>1574933</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9353402968688891</v>
+        <v>0.9353402968688893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9205419521526427</v>
+        <v>0.9201853933886207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9475888803057002</v>
+        <v>0.9470146444336843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1162</v>
@@ -5679,19 +5679,19 @@
         <v>866866</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>852501</v>
+        <v>852851</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>876673</v>
+        <v>877183</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9652079747132427</v>
+        <v>0.9652079747132426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9492131324921703</v>
+        <v>0.9496037015779698</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9761278735678123</v>
+        <v>0.976696056405813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2640</v>
@@ -5700,19 +5700,19 @@
         <v>2422384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2393768</v>
+        <v>2395236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2446354</v>
+        <v>2445159</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9458138803907844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9346406598833066</v>
+        <v>0.9352139068755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9551727819811507</v>
+        <v>0.9547061774561524</v>
       </c>
     </row>
     <row r="18">
